--- a/src/test/resources/testcases/Login_TestSuite.xlsx
+++ b/src/test/resources/testcases/Login_TestSuite.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
